--- a/biology/Zoologie/Eunicella_cavolini/Eunicella_cavolini.xlsx
+++ b/biology/Zoologie/Eunicella_cavolini/Eunicella_cavolini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gorgone jaune
 Eunicella cavolini, la gorgone jaune, est une espèce de cnidaires anthozoaires de la famille des Gorgoniidae. C'est une espèce commune de l'est de l'Océan Atlantique et de la Mer méditerranée.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
